--- a/src/zdemo_excel15_08.w3mi.data.xlsx
+++ b/src/zdemo_excel15_08.w3mi.data.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="A_range_with_sheet_visibility" localSheetId="0">Sheet1!$E$4:$E$5</definedName>
     <definedName name="range">Sheet1!$C$4:$C$8</definedName>
     <definedName name="A_range_with_a_name_that_is_longer_than_20_characters">Sheet1!$D$4:$D$5</definedName>
   </definedNames>
